--- a/Maven-frameworks/src/test/resources/TestData.xlsx
+++ b/Maven-frameworks/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11310" windowHeight="4485"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11340" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Test_ID</t>
   </si>
@@ -95,6 +95,33 @@
   </si>
   <si>
     <t>vikram123</t>
+  </si>
+  <si>
+    <t>project name</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>dead month</t>
+  </si>
+  <si>
+    <t>deaddate</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>AmountTransfer</t>
+  </si>
+  <si>
+    <t>FromAccount</t>
+  </si>
+  <si>
+    <t>Type of Testing</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -139,9 +166,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,8 +483,9 @@
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -557,6 +586,46 @@
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43702</v>
+      </c>
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
